--- a/testData/JRI_TestCases_Practice.xlsx
+++ b/testData/JRI_TestCases_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SeleniumEclipseWorkspace\JRI_PROJECT\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5847A541-C00A-4FF6-A92E-6A9639736026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E7B82E-E15C-4486-8F55-D59F391B4426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="414">
   <si>
     <t>S.No</t>
   </si>
@@ -1514,6 +1514,25 @@
   </si>
   <si>
     <t>partially developed</t>
+  </si>
+  <si>
+    <t>Next page has displayed</t>
+  </si>
+  <si>
+    <t>find all elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displaying i.  "Enter your email" validation message for empty data 
+ii. "Enter valid login email" when user typo not registered email /invalid format </t>
+  </si>
+  <si>
+    <t>partial developed email reciving is pending</t>
+  </si>
+  <si>
+    <t>unable to sign in due to capture image</t>
+  </si>
+  <si>
+    <t>not developed</t>
   </si>
 </sst>
 </file>
@@ -2082,34 +2101,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2142,22 +2134,10 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2180,6 +2160,45 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3546,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="12"/>
@@ -3608,20 +3627,20 @@
       <c r="Y1" s="19"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="64"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="26"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -3640,7 +3659,7 @@
     </row>
     <row r="3" spans="1:25" ht="84">
       <c r="A3" s="21"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -3649,7 +3668,7 @@
       <c r="D3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="57" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -3683,7 +3702,7 @@
     </row>
     <row r="4" spans="1:25" ht="156">
       <c r="A4" s="26"/>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="56" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -3724,7 +3743,7 @@
     </row>
     <row r="5" spans="1:25" ht="120">
       <c r="A5" s="26"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="56" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -3765,7 +3784,7 @@
     </row>
     <row r="6" spans="1:25" ht="96">
       <c r="A6" s="26"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="56" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3806,7 +3825,7 @@
     </row>
     <row r="7" spans="1:25" ht="96">
       <c r="A7" s="26"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="56" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -3847,7 +3866,7 @@
     </row>
     <row r="8" spans="1:25" ht="96">
       <c r="A8" s="26"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="56" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -3938,7 +3957,7 @@
       <c r="D10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="22" t="s">
         <v>69</v>
       </c>
@@ -3979,15 +3998,15 @@
       <c r="D11" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="60" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="69"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
     </row>
@@ -4006,7 +4025,7 @@
       <c r="F12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="61" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -4033,17 +4052,17 @@
       <c r="Y12" s="19"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="26"/>
       <c r="I13" s="21"/>
       <c r="J13" s="26"/>
@@ -4074,7 +4093,7 @@
       <c r="D14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="58" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -4158,7 +4177,7 @@
       <c r="D16" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="62" t="s">
         <v>87</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -4205,7 +4224,7 @@
       <c r="D17" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="62" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -4248,7 +4267,7 @@
       <c r="D18" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="58" t="s">
         <v>96</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -4334,12 +4353,16 @@
       <c r="F20" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="26"/>
+      <c r="J20" s="26" t="s">
+        <v>399</v>
+      </c>
       <c r="K20" s="26"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
@@ -4376,9 +4399,13 @@
       <c r="G21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="26" t="s">
+        <v>409</v>
+      </c>
       <c r="I21" s="21"/>
-      <c r="J21" s="26"/>
+      <c r="J21" s="26" t="s">
+        <v>399</v>
+      </c>
       <c r="K21" s="26"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -4413,8 +4440,12 @@
       <c r="G22" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>390</v>
+      </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="19"/>
@@ -4451,7 +4482,9 @@
         <v>41</v>
       </c>
       <c r="H23" s="26"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="21" t="s">
+        <v>411</v>
+      </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="19"/>
@@ -4470,19 +4503,19 @@
       <c r="Y23" s="19"/>
     </row>
     <row r="24" spans="1:26" s="35" customFormat="1">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="34"/>
@@ -4518,8 +4551,12 @@
       <c r="G25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="21"/>
+      <c r="H25" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>390</v>
+      </c>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="19"/>
@@ -4555,8 +4592,12 @@
       <c r="G26" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>413</v>
+      </c>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="19"/>
@@ -4589,7 +4630,9 @@
       <c r="F27" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="H27" s="26"/>
       <c r="I27" s="21"/>
       <c r="J27" s="26"/>
@@ -4624,7 +4667,9 @@
       <c r="F28" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="H28" s="26"/>
       <c r="I28" s="21"/>
       <c r="J28" s="26"/>
@@ -4659,7 +4704,9 @@
       <c r="F29" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="H29" s="26"/>
       <c r="I29" s="21"/>
       <c r="J29" s="41"/>
@@ -4680,19 +4727,19 @@
       <c r="Y29" s="19"/>
     </row>
     <row r="30" spans="1:26" s="35" customFormat="1">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="34"/>
@@ -4823,19 +4870,19 @@
       <c r="Y33" s="19"/>
     </row>
     <row r="34" spans="1:25" s="35" customFormat="1">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="75"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="76"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="34"/>
@@ -4965,19 +5012,19 @@
       <c r="Y37" s="19"/>
     </row>
     <row r="38" spans="1:25" s="35" customFormat="1">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="76"/>
+      <c r="I38" s="65"/>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="34"/>
@@ -5218,17 +5265,17 @@
       <c r="Y44" s="19"/>
     </row>
     <row r="45" spans="1:25">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="26"/>
       <c r="I45" s="21"/>
       <c r="J45" s="26"/>
@@ -5304,7 +5351,7 @@
         <v>41</v>
       </c>
       <c r="H47" s="22"/>
-      <c r="I47" s="80"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="19"/>
@@ -5341,7 +5388,7 @@
         <v>41</v>
       </c>
       <c r="H48" s="22"/>
-      <c r="I48" s="80"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="19"/>
@@ -5378,7 +5425,7 @@
         <v>41</v>
       </c>
       <c r="H49" s="22"/>
-      <c r="I49" s="80"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="19"/>
@@ -5415,7 +5462,7 @@
         <v>41</v>
       </c>
       <c r="H50" s="22"/>
-      <c r="I50" s="80"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="19"/>
@@ -5452,7 +5499,7 @@
         <v>41</v>
       </c>
       <c r="H51" s="22"/>
-      <c r="I51" s="80"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="19"/>
@@ -5489,7 +5536,7 @@
         <v>41</v>
       </c>
       <c r="H52" s="22"/>
-      <c r="I52" s="80"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="19"/>
@@ -5526,7 +5573,7 @@
         <v>41</v>
       </c>
       <c r="H53" s="22"/>
-      <c r="I53" s="80"/>
+      <c r="I53" s="67"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="19"/>
@@ -5565,7 +5612,7 @@
         <v>98</v>
       </c>
       <c r="H54" s="22"/>
-      <c r="I54" s="80"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="19"/>
@@ -5584,17 +5631,17 @@
       <c r="Y54" s="19"/>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="64"/>
       <c r="H55" s="26"/>
       <c r="I55" s="21"/>
       <c r="J55" s="26"/>
@@ -5616,7 +5663,7 @@
     </row>
     <row r="56" spans="1:25" ht="84">
       <c r="A56" s="22"/>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="67" t="s">
         <v>220</v>
       </c>
       <c r="C56" s="22" t="s">
@@ -5631,7 +5678,7 @@
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
-      <c r="I56" s="80"/>
+      <c r="I56" s="67"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
       <c r="L56" s="19"/>
@@ -5651,7 +5698,7 @@
     </row>
     <row r="57" spans="1:25" ht="144">
       <c r="A57" s="22"/>
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="67" t="s">
         <v>221</v>
       </c>
       <c r="C57" s="22" t="s">
@@ -5666,7 +5713,7 @@
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="80"/>
+      <c r="I57" s="67"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="19"/>
@@ -5686,7 +5733,7 @@
     </row>
     <row r="58" spans="1:25" ht="60">
       <c r="A58" s="44"/>
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="67" t="s">
         <v>224</v>
       </c>
       <c r="C58" s="44" t="s">
@@ -5701,7 +5748,7 @@
       </c>
       <c r="G58" s="44"/>
       <c r="H58" s="22"/>
-      <c r="I58" s="80"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="19"/>
@@ -5721,7 +5768,7 @@
     </row>
     <row r="59" spans="1:25" ht="204">
       <c r="A59" s="44"/>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="67" t="s">
         <v>227</v>
       </c>
       <c r="C59" s="44" t="s">
@@ -5736,7 +5783,7 @@
       </c>
       <c r="G59" s="44"/>
       <c r="H59" s="22"/>
-      <c r="I59" s="80"/>
+      <c r="I59" s="67"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
       <c r="L59" s="19"/>
@@ -5755,19 +5802,19 @@
       <c r="Y59" s="19"/>
     </row>
     <row r="60" spans="1:25" ht="72">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="68" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
       <c r="E60" s="46"/>
       <c r="F60" s="46"/>
-      <c r="G60" s="82"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="22"/>
-      <c r="I60" s="80"/>
+      <c r="I60" s="67"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
       <c r="L60" s="19"/>
@@ -5787,7 +5834,7 @@
     </row>
     <row r="61" spans="1:25" ht="84">
       <c r="A61" s="48"/>
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="70" t="s">
         <v>228</v>
       </c>
       <c r="C61" s="22" t="s">
@@ -5802,7 +5849,7 @@
       </c>
       <c r="G61" s="48"/>
       <c r="H61" s="22"/>
-      <c r="I61" s="80"/>
+      <c r="I61" s="67"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="L61" s="19"/>
@@ -5822,7 +5869,7 @@
     </row>
     <row r="62" spans="1:25" ht="60">
       <c r="A62" s="22"/>
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="70" t="s">
         <v>232</v>
       </c>
       <c r="C62" s="22" t="s">
@@ -5837,7 +5884,7 @@
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
-      <c r="I62" s="80"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="L62" s="19"/>
@@ -5857,7 +5904,7 @@
     </row>
     <row r="63" spans="1:25" ht="120">
       <c r="A63" s="22"/>
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="70" t="s">
         <v>235</v>
       </c>
       <c r="C63" s="22" t="s">
@@ -5872,7 +5919,7 @@
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
-      <c r="I63" s="80"/>
+      <c r="I63" s="67"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="19"/>
@@ -5892,7 +5939,7 @@
     </row>
     <row r="64" spans="1:25" ht="120">
       <c r="A64" s="22"/>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="70" t="s">
         <v>238</v>
       </c>
       <c r="C64" s="22" t="s">
@@ -5927,7 +5974,7 @@
     </row>
     <row r="65" spans="1:25" ht="108">
       <c r="A65" s="22"/>
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="70" t="s">
         <v>241</v>
       </c>
       <c r="C65" s="22" t="s">
@@ -5961,21 +6008,21 @@
       <c r="Y65" s="19"/>
     </row>
     <row r="66" spans="1:25">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
       <c r="L66" s="19"/>
       <c r="M66" s="19"/>
       <c r="N66" s="19"/>
@@ -6062,21 +6109,21 @@
       <c r="Y68" s="19"/>
     </row>
     <row r="69" spans="1:25">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
       <c r="N69" s="19"/>
@@ -6163,21 +6210,21 @@
       <c r="Y71" s="19"/>
     </row>
     <row r="72" spans="1:25">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="B72" s="85" t="s">
+      <c r="B72" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
       <c r="N72" s="19"/>
@@ -31488,14 +31535,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="5" t="s">
@@ -31638,14 +31685,14 @@
       <c r="G10" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="B13" s="5" t="s">
@@ -31893,14 +31940,14 @@
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="8" t="s">

--- a/testData/JRI_TestCases_Practice.xlsx
+++ b/testData/JRI_TestCases_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SeleniumEclipseWorkspace\JRI_PROJECT\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E7B82E-E15C-4486-8F55-D59F391B4426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E9E214-B789-4CF3-A1BC-A23D79A818D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="414">
   <si>
     <t>S.No</t>
   </si>
@@ -1507,15 +1507,6 @@
     <t>showing validation messages</t>
   </si>
   <si>
-    <t xml:space="preserve">failed to login successfully </t>
-  </si>
-  <si>
-    <t>due to able to read capture numbers that are in img format</t>
-  </si>
-  <si>
-    <t>partially developed</t>
-  </si>
-  <si>
     <t>Next page has displayed</t>
   </si>
   <si>
@@ -1529,10 +1520,19 @@
     <t>partial developed email reciving is pending</t>
   </si>
   <si>
-    <t>unable to sign in due to capture image</t>
-  </si>
-  <si>
-    <t>not developed</t>
+    <t xml:space="preserve"> developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login successfully </t>
+  </si>
+  <si>
+    <t>image captured manually using scanner</t>
+  </si>
+  <si>
+    <t>logout success</t>
+  </si>
+  <si>
+    <t>able to sign in (achived  using scanner function)</t>
   </si>
 </sst>
 </file>
@@ -3565,8 +3565,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="12"/>
@@ -4236,10 +4238,10 @@
       <c r="H17" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="26" t="s">
+      <c r="I17" s="26" t="s">
         <v>399</v>
       </c>
+      <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -4256,7 +4258,7 @@
       <c r="X17" s="19"/>
       <c r="Y17" s="19"/>
     </row>
-    <row r="18" spans="1:26" ht="72">
+    <row r="18" spans="1:26" ht="60">
       <c r="A18" s="26"/>
       <c r="B18" s="21" t="s">
         <v>93</v>
@@ -4273,17 +4275,17 @@
       <c r="F18" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>98</v>
+      <c r="G18" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>407</v>
+        <v>410</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>411</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="19"/>
@@ -4316,12 +4318,18 @@
       <c r="F19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="26"/>
+      <c r="G19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>411</v>
+      </c>
       <c r="K19" s="26"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -4357,10 +4365,9 @@
         <v>41</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="I20" s="26" t="s">
         <v>399</v>
       </c>
       <c r="K20" s="26"/>
@@ -4400,10 +4407,9 @@
         <v>41</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>399</v>
       </c>
       <c r="K21" s="26"/>
@@ -4441,7 +4447,7 @@
         <v>41</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>390</v>
@@ -4483,7 +4489,7 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -4589,14 +4595,14 @@
       <c r="F26" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="31" t="s">
-        <v>98</v>
+      <c r="G26" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
